--- a/BOM FreeJoy Controller Lite.xlsx
+++ b/BOM FreeJoy Controller Lite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Projects Altium\FreeJoy\FreeJoy Controller Lite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Projects\FreeJoy\FreeJoy Controller Lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,7 +50,16 @@
     <t>4.7nF 250V</t>
   </si>
   <si>
-    <t>C2, C3, C11</t>
+    <t>C2, C5, C6, C7, C8, C9, C12</t>
+  </si>
+  <si>
+    <t>0.1uF ± 10%, 25V, X7R, SMD 0603</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C3, C4, C11</t>
   </si>
   <si>
     <t>1uF ± 10%, 16V, X7R, SMD 0603</t>
@@ -59,15 +68,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C4, C5, C6, C7, C8, C12, C15</t>
-  </si>
-  <si>
-    <t>0.1uF ± 10%, 25V, X7R, SMD 0603</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>C10, C13, C14</t>
   </si>
   <si>
@@ -158,7 +158,7 @@
     <t>27R</t>
   </si>
   <si>
-    <t>R5, R9, R10</t>
+    <t>R5, R6, R10, R11</t>
   </si>
   <si>
     <t>4K7 ± 1%, SMD 0603</t>
@@ -167,7 +167,7 @@
     <t>4K7</t>
   </si>
   <si>
-    <t>R6, R7</t>
+    <t>R7, R8</t>
   </si>
   <si>
     <t>470R ± 1%, SMD 0603</t>
@@ -176,7 +176,7 @@
     <t>470R</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>R9</t>
   </si>
   <si>
     <t>1K ± 1%, SMD 0603</t>
@@ -206,21 +206,21 @@
     <t>XP2</t>
   </si>
   <si>
+    <t>PLS-5</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>XP3</t>
+  </si>
+  <si>
     <t>PLD-4</t>
   </si>
   <si>
     <t>BOOT</t>
   </si>
   <si>
-    <t>XP3</t>
-  </si>
-  <si>
-    <t>PLS-5</t>
-  </si>
-  <si>
-    <t>PROG</t>
-  </si>
-  <si>
     <t>XP4</t>
   </si>
   <si>
@@ -251,25 +251,25 @@
     <t>XP8</t>
   </si>
   <si>
+    <t>AXIS-A4</t>
+  </si>
+  <si>
+    <t>XP9</t>
+  </si>
+  <si>
     <t>SPI/A5</t>
   </si>
   <si>
-    <t>XP9</t>
+    <t>XP10</t>
   </si>
   <si>
     <t>SPI/A6</t>
   </si>
   <si>
-    <t>XP10</t>
+    <t>XP11</t>
   </si>
   <si>
     <t>SHIFT REG/A7</t>
-  </si>
-  <si>
-    <t>XP11</t>
-  </si>
-  <si>
-    <t>AXIS-A4</t>
   </si>
   <si>
     <t>XP12</t>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -709,10 +709,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">

--- a/BOM FreeJoy Controller Lite.xlsx
+++ b/BOM FreeJoy Controller Lite.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="13230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="BOM FreeJoy Controller Lite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Designator</t>
   </si>
@@ -212,55 +212,13 @@
     <t>BOOT</t>
   </si>
   <si>
-    <t>XP4</t>
+    <t>XP4, XP5, XP6, XP7, XP8, XP9, XP10, XP11</t>
   </si>
   <si>
     <t>PH2.0-6P</t>
   </si>
   <si>
-    <t>AXIS-A0</t>
-  </si>
-  <si>
-    <t>XP5</t>
-  </si>
-  <si>
-    <t>AXIS-A1</t>
-  </si>
-  <si>
-    <t>XP6</t>
-  </si>
-  <si>
-    <t>AXIS-A2</t>
-  </si>
-  <si>
-    <t>XP7</t>
-  </si>
-  <si>
-    <t>AXIS-A3</t>
-  </si>
-  <si>
-    <t>XP8</t>
-  </si>
-  <si>
-    <t>AXIS-A4</t>
-  </si>
-  <si>
-    <t>XP9</t>
-  </si>
-  <si>
-    <t>SPI/A5</t>
-  </si>
-  <si>
-    <t>XP10</t>
-  </si>
-  <si>
-    <t>SPI/A6</t>
-  </si>
-  <si>
-    <t>XP11</t>
-  </si>
-  <si>
-    <t>SHIFT REG/A7</t>
+    <t>AXIS-A0, AXIS-A1, AXIS-A2, AXIS-A3, AXIS-A4, SPI/A5, SPI/A6, SHIFT REG/A7</t>
   </si>
   <si>
     <t>XP12</t>
@@ -649,14 +607,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
@@ -745,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -941,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>61</v>
       </c>
@@ -952,7 +910,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,10 +918,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -971,13 +929,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -985,13 +943,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -999,119 +957,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>